--- a/test/TestJuntos.xlsx
+++ b/test/TestJuntos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
   <si>
     <t>taskrun_article_number</t>
   </si>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,12 +2457,20 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>90</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G76">
         <v>200</v>
@@ -2477,11 +2485,20 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>90</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G77">
         <v>200</v>
@@ -2496,11 +2513,20 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>90</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G78">
         <v>200</v>
@@ -2515,11 +2541,20 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>90</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G79">
         <v>200</v>
@@ -2534,11 +2569,20 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>140</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G80">
         <v>200</v>
@@ -2553,11 +2597,20 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>90</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G81">
         <v>200</v>
@@ -2572,11 +2625,20 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>90</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G82">
         <v>200</v>
@@ -2591,11 +2653,20 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>90</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G83">
         <v>200</v>
@@ -2610,14 +2681,26 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>90</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G84">
         <v>200</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2626,14 +2709,26 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>140</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G85">
         <v>200</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2641,8 +2736,10 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -2651,6 +2748,9 @@
       <c r="G86">
         <v>200</v>
       </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -2658,7 +2758,10 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -2667,6 +2770,9 @@
       <c r="G87">
         <v>200</v>
       </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -2674,7 +2780,10 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -2683,6 +2792,9 @@
       <c r="G88">
         <v>200</v>
       </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -2690,7 +2802,10 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -2699,6 +2814,9 @@
       <c r="G89">
         <v>200</v>
       </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -2706,7 +2824,10 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -2715,6 +2836,9 @@
       <c r="G90">
         <v>200</v>
       </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -2722,7 +2846,10 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -2731,6 +2858,9 @@
       <c r="G91">
         <v>200</v>
       </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -2738,7 +2868,10 @@
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -2747,6 +2880,9 @@
       <c r="G92">
         <v>200</v>
       </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -2754,7 +2890,10 @@
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -2763,6 +2902,9 @@
       <c r="G93">
         <v>200</v>
       </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -2770,7 +2912,10 @@
       </c>
       <c r="B94">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -2779,6 +2924,9 @@
       <c r="G94">
         <v>200</v>
       </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -2786,7 +2934,10 @@
       </c>
       <c r="B95">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -2795,14 +2946,19 @@
       <c r="G95">
         <v>200</v>
       </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -2811,14 +2967,20 @@
       <c r="G96">
         <v>200</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -2827,14 +2989,20 @@
       <c r="G97">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -2843,14 +3011,20 @@
       <c r="G98">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -2859,14 +3033,20 @@
       <c r="G99">
         <v>200</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -2875,14 +3055,20 @@
       <c r="G100">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
       </c>
       <c r="F101">
         <f t="shared" ref="F101:F119" si="4">E101+20</f>
@@ -2891,14 +3077,20 @@
       <c r="G101">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
@@ -2907,14 +3099,20 @@
       <c r="G102">
         <v>200</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
@@ -2923,14 +3121,20 @@
       <c r="G103">
         <v>200</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
@@ -2939,14 +3143,20 @@
       <c r="G104">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
@@ -2955,14 +3165,19 @@
       <c r="G105">
         <v>200</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
@@ -2971,14 +3186,20 @@
       <c r="G106">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
@@ -2987,14 +3208,20 @@
       <c r="G107">
         <v>200</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
@@ -3003,14 +3230,20 @@
       <c r="G108">
         <v>200</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
@@ -3019,14 +3252,20 @@
       <c r="G109">
         <v>200</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
@@ -3035,14 +3274,17 @@
       <c r="G110">
         <v>200</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
@@ -3051,14 +3293,17 @@
       <c r="G111">
         <v>200</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
@@ -3067,14 +3312,17 @@
       <c r="G112">
         <v>200</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
@@ -3083,14 +3331,17 @@
       <c r="G113">
         <v>200</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
       <c r="B114">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
@@ -3099,14 +3350,17 @@
       <c r="G114">
         <v>200</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
@@ -3115,14 +3369,17 @@
       <c r="G115">
         <v>200</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
       <c r="B116">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
@@ -3131,14 +3388,17 @@
       <c r="G116">
         <v>200</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
@@ -3147,14 +3407,17 @@
       <c r="G117">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
@@ -3163,14 +3426,17 @@
       <c r="G118">
         <v>200</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
@@ -3179,110 +3445,113 @@
       <c r="G119">
         <v>200</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G120">
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G121">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G122">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G123">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G124">
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
       <c r="B125">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G125">
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
       <c r="B126">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G127">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
       <c r="B128">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G128">
         <v>200</v>
@@ -3294,7 +3563,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G129">
         <v>200</v>
@@ -3306,7 +3575,7 @@
       </c>
       <c r="B130">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G130">
         <v>200</v>
@@ -3318,7 +3587,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G131">
         <v>200</v>
@@ -3330,7 +3599,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G132">
         <v>200</v>
@@ -3342,7 +3611,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G133">
         <v>200</v>
@@ -3354,7 +3623,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>200</v>
@@ -3366,7 +3635,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>200</v>
@@ -3378,7 +3647,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>200</v>
@@ -3390,7 +3659,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>200</v>
@@ -3402,7 +3671,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>200</v>
@@ -3414,7 +3683,7 @@
       </c>
       <c r="B139">
         <f t="shared" ref="B139:B202" si="5">B138+1</f>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>200</v>
@@ -3426,7 +3695,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>200</v>
@@ -3438,7 +3707,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>200</v>
@@ -3450,7 +3719,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>200</v>
@@ -3462,7 +3731,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G143">
         <v>200</v>
@@ -3474,7 +3743,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>200</v>
@@ -3486,7 +3755,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>200</v>
@@ -3498,7 +3767,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>200</v>
@@ -3510,7 +3779,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>200</v>
@@ -3522,7 +3791,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G148">
         <v>200</v>
@@ -3534,7 +3803,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>200</v>
@@ -3546,7 +3815,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="G150">
         <v>200</v>
@@ -3558,7 +3827,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>200</v>
@@ -3570,7 +3839,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>200</v>
@@ -3582,7 +3851,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G153">
         <v>200</v>
@@ -3594,7 +3863,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>200</v>
@@ -3606,7 +3875,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>200</v>
@@ -3618,7 +3887,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G156">
         <v>200</v>
@@ -3630,7 +3899,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G157">
         <v>200</v>
@@ -3642,7 +3911,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G158">
         <v>200</v>
@@ -3654,7 +3923,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G159">
         <v>200</v>
@@ -3666,7 +3935,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G160">
         <v>200</v>
@@ -3678,7 +3947,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="G161">
         <v>200</v>
@@ -3690,7 +3959,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G162">
         <v>200</v>
@@ -3702,7 +3971,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G163">
         <v>200</v>
@@ -3714,7 +3983,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="G164">
         <v>200</v>
@@ -3726,7 +3995,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G165">
         <v>200</v>
@@ -3738,7 +4007,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="G166">
         <v>200</v>
@@ -3750,7 +4019,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G167">
         <v>200</v>
@@ -3762,7 +4031,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G168">
         <v>200</v>
@@ -3774,7 +4043,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="G169">
         <v>200</v>
@@ -3786,7 +4055,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G170">
         <v>200</v>
@@ -3798,7 +4067,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G171">
         <v>200</v>
@@ -3810,7 +4079,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="G172">
         <v>200</v>
@@ -3822,7 +4091,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G173">
         <v>200</v>
@@ -3834,7 +4103,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="G174">
         <v>200</v>
@@ -3846,7 +4115,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G175">
         <v>200</v>
@@ -3858,7 +4127,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="G176">
         <v>200</v>
@@ -3870,7 +4139,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G177">
         <v>200</v>
@@ -3882,7 +4151,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="G178">
         <v>200</v>
@@ -3894,7 +4163,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="G179">
         <v>200</v>
@@ -3906,7 +4175,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G180">
         <v>200</v>
@@ -3918,7 +4187,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G181">
         <v>200</v>
@@ -3930,7 +4199,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G182">
         <v>200</v>
@@ -3942,7 +4211,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="G183">
         <v>200</v>
@@ -3954,7 +4223,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G184">
         <v>200</v>
@@ -3966,7 +4235,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G185">
         <v>200</v>
@@ -3978,7 +4247,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G186">
         <v>200</v>
@@ -3990,7 +4259,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="G187">
         <v>200</v>
@@ -4002,7 +4271,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="G188">
         <v>200</v>
@@ -4014,7 +4283,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="G189">
         <v>200</v>
@@ -4026,7 +4295,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="G190">
         <v>200</v>
@@ -4038,7 +4307,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G191">
         <v>200</v>
@@ -4050,7 +4319,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="5"/>
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G192">
         <v>200</v>
@@ -4062,7 +4331,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="G193">
         <v>200</v>
@@ -4074,7 +4343,7 @@
       </c>
       <c r="B194">
         <f t="shared" si="5"/>
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G194">
         <v>200</v>
@@ -4086,7 +4355,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="G195">
         <v>200</v>
@@ -4098,7 +4367,7 @@
       </c>
       <c r="B196">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G196">
         <v>200</v>
@@ -4110,7 +4379,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="G197">
         <v>200</v>
@@ -4122,7 +4391,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G198">
         <v>200</v>
@@ -4134,7 +4403,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="5"/>
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G199">
         <v>200</v>
@@ -4146,7 +4415,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G200">
         <v>200</v>
@@ -4158,7 +4427,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="5"/>
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="G201">
         <v>200</v>
@@ -4170,7 +4439,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="G202">
         <v>200</v>
@@ -4182,7 +4451,7 @@
       </c>
       <c r="B203">
         <f t="shared" ref="B203:B266" si="6">B202+1</f>
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G203">
         <v>200</v>
@@ -4194,7 +4463,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="G204">
         <v>200</v>
@@ -4206,7 +4475,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G205">
         <v>200</v>
@@ -4218,7 +4487,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="G206">
         <v>200</v>
@@ -4230,7 +4499,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="G207">
         <v>200</v>
@@ -4242,7 +4511,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="G208">
         <v>200</v>
@@ -4254,7 +4523,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G209">
         <v>200</v>
@@ -4266,7 +4535,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="G210">
         <v>200</v>
@@ -4278,7 +4547,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="G211">
         <v>200</v>
@@ -4290,7 +4559,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="G212">
         <v>200</v>
@@ -4302,7 +4571,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="G213">
         <v>200</v>
@@ -4314,7 +4583,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G214">
         <v>200</v>
@@ -4326,7 +4595,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G215">
         <v>200</v>
@@ -4338,7 +4607,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G216">
         <v>200</v>
@@ -4350,7 +4619,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="G217">
         <v>200</v>
@@ -4362,7 +4631,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G218">
         <v>200</v>
@@ -4374,7 +4643,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="G219">
         <v>200</v>
@@ -4386,7 +4655,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G220">
         <v>200</v>
@@ -4398,7 +4667,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="G221">
         <v>200</v>
@@ -4410,7 +4679,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="G222">
         <v>200</v>
@@ -4422,7 +4691,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="G223">
         <v>200</v>
@@ -4434,7 +4703,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G224">
         <v>200</v>
@@ -4446,7 +4715,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G225">
         <v>200</v>
@@ -4458,7 +4727,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="G226">
         <v>200</v>
@@ -4470,7 +4739,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="G227">
         <v>200</v>
@@ -4482,7 +4751,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -4491,7 +4760,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -4500,7 +4769,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -4509,7 +4778,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -4518,7 +4787,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
@@ -4527,7 +4796,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -4536,7 +4805,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -4545,7 +4814,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -4554,7 +4823,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -4563,7 +4832,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -4572,7 +4841,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
@@ -4581,7 +4850,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -4590,7 +4859,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4599,7 +4868,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4608,7 +4877,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4617,7 +4886,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4895,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4635,7 +4904,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4644,7 +4913,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4653,7 +4922,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4662,7 +4931,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4671,7 +4940,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4680,7 +4949,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4689,7 +4958,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4967,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4707,7 +4976,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4716,7 +4985,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4725,7 +4994,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4734,7 +5003,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4743,7 +5012,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4752,7 +5021,7 @@
       </c>
       <c r="B258">
         <f t="shared" si="6"/>
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4761,7 +5030,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="6"/>
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +5039,7 @@
       </c>
       <c r="B260">
         <f t="shared" si="6"/>
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4779,7 +5048,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="6"/>
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4788,7 +5057,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="6"/>
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4797,7 +5066,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="6"/>
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4806,7 +5075,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="6"/>
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4815,7 +5084,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="6"/>
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4824,7 +5093,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4833,7 +5102,7 @@
       </c>
       <c r="B267">
         <f t="shared" ref="B267:B330" si="7">B266+1</f>
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +5111,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4851,7 +5120,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="7"/>
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4860,7 +5129,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4869,7 +5138,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="7"/>
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4878,7 +5147,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4887,7 +5156,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="7"/>
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4896,7 +5165,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="7"/>
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4905,7 +5174,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="7"/>
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +5183,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="7"/>
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +5192,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4932,7 +5201,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4941,7 +5210,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4950,7 +5219,7 @@
       </c>
       <c r="B280">
         <f t="shared" si="7"/>
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4959,7 +5228,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4968,7 +5237,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4977,7 +5246,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +5255,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4995,7 +5264,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5004,7 +5273,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5013,7 +5282,7 @@
       </c>
       <c r="B287">
         <f t="shared" si="7"/>
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5022,7 +5291,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5031,7 +5300,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5040,7 +5309,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5049,7 +5318,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5327,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5067,7 +5336,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5076,7 +5345,7 @@
       </c>
       <c r="B294">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5085,7 +5354,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5094,7 +5363,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5103,7 +5372,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="7"/>
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5112,7 +5381,7 @@
       </c>
       <c r="B298">
         <f t="shared" si="7"/>
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5121,7 +5390,7 @@
       </c>
       <c r="B299">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5399,7 @@
       </c>
       <c r="B300">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -5139,7 +5408,7 @@
       </c>
       <c r="B301">
         <f t="shared" si="7"/>
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -5148,7 +5417,7 @@
       </c>
       <c r="B302">
         <f t="shared" si="7"/>
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5157,7 +5426,7 @@
       </c>
       <c r="B303">
         <f t="shared" si="7"/>
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5166,7 +5435,7 @@
       </c>
       <c r="B304">
         <f t="shared" si="7"/>
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5175,7 +5444,7 @@
       </c>
       <c r="B305">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5184,7 +5453,7 @@
       </c>
       <c r="B306">
         <f t="shared" si="7"/>
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -5193,7 +5462,7 @@
       </c>
       <c r="B307">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5471,7 @@
       </c>
       <c r="B308">
         <f t="shared" si="7"/>
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,7 +5480,7 @@
       </c>
       <c r="B309">
         <f t="shared" si="7"/>
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5220,7 +5489,7 @@
       </c>
       <c r="B310">
         <f t="shared" si="7"/>
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5229,7 +5498,7 @@
       </c>
       <c r="B311">
         <f t="shared" si="7"/>
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5238,7 +5507,7 @@
       </c>
       <c r="B312">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5247,7 +5516,7 @@
       </c>
       <c r="B313">
         <f t="shared" si="7"/>
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5256,7 +5525,7 @@
       </c>
       <c r="B314">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5265,7 +5534,7 @@
       </c>
       <c r="B315">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5543,7 @@
       </c>
       <c r="B316">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -5283,7 +5552,7 @@
       </c>
       <c r="B317">
         <f t="shared" si="7"/>
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -5292,7 +5561,7 @@
       </c>
       <c r="B318">
         <f t="shared" si="7"/>
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -5301,7 +5570,7 @@
       </c>
       <c r="B319">
         <f t="shared" si="7"/>
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -5310,7 +5579,7 @@
       </c>
       <c r="B320">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -5319,7 +5588,7 @@
       </c>
       <c r="B321">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -5328,7 +5597,7 @@
       </c>
       <c r="B322">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -5337,7 +5606,7 @@
       </c>
       <c r="B323">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5615,7 @@
       </c>
       <c r="B324">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +5624,7 @@
       </c>
       <c r="B325">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -5364,7 +5633,7 @@
       </c>
       <c r="B326">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -5373,7 +5642,7 @@
       </c>
       <c r="B327">
         <f t="shared" si="7"/>
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -5382,7 +5651,7 @@
       </c>
       <c r="B328">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -5391,7 +5660,7 @@
       </c>
       <c r="B329">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -5400,7 +5669,7 @@
       </c>
       <c r="B330">
         <f t="shared" si="7"/>
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -5409,7 +5678,7 @@
       </c>
       <c r="B331">
         <f t="shared" ref="B331:B339" si="8">B330+1</f>
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5687,7 @@
       </c>
       <c r="B332">
         <f t="shared" si="8"/>
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +5696,7 @@
       </c>
       <c r="B333">
         <f t="shared" si="8"/>
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -5436,7 +5705,7 @@
       </c>
       <c r="B334">
         <f t="shared" si="8"/>
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -5445,7 +5714,7 @@
       </c>
       <c r="B335">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5454,7 +5723,7 @@
       </c>
       <c r="B336">
         <f t="shared" si="8"/>
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -5463,7 +5732,7 @@
       </c>
       <c r="B337">
         <f t="shared" si="8"/>
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -5472,7 +5741,7 @@
       </c>
       <c r="B338">
         <f t="shared" si="8"/>
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -5481,7 +5750,7 @@
       </c>
       <c r="B339">
         <f t="shared" si="8"/>
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">

--- a/test/TestJuntos.xlsx
+++ b/test/TestJuntos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="10">
   <si>
     <t>taskrun_article_number</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>nominal</t>
+  </si>
+  <si>
+    <t>ordinal</t>
   </si>
 </sst>
 </file>
@@ -383,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="B287" workbookViewId="0">
+      <selection activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3071,7 +3074,7 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <f t="shared" ref="F101:F119" si="4">E101+20</f>
+        <f t="shared" ref="F101:F164" si="4">E101+20</f>
         <v>20</v>
       </c>
       <c r="G101">
@@ -3283,12 +3286,20 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G111">
         <v>200</v>
@@ -3303,17 +3314,26 @@
       </c>
       <c r="B112">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G112">
         <v>200</v>
       </c>
       <c r="H112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3322,17 +3342,26 @@
       </c>
       <c r="B113">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G113">
         <v>200</v>
       </c>
       <c r="H113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3341,17 +3370,26 @@
       </c>
       <c r="B114">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G114">
         <v>200</v>
       </c>
       <c r="H114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3360,17 +3398,26 @@
       </c>
       <c r="B115">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G115">
         <v>200</v>
       </c>
       <c r="H115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3378,18 +3425,26 @@
         <v>1</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>14</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G116">
         <v>200</v>
       </c>
       <c r="H116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3398,17 +3453,26 @@
       </c>
       <c r="B117">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G117">
         <v>200</v>
       </c>
       <c r="H117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3417,17 +3481,26 @@
       </c>
       <c r="B118">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G118">
         <v>200</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3436,17 +3509,26 @@
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C119">
         <v>14</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G119">
         <v>200</v>
       </c>
       <c r="H119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3455,10 +3537,26 @@
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G120">
         <v>200</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3466,11 +3564,26 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G121">
         <v>200</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3479,10 +3592,26 @@
       </c>
       <c r="B122">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G122">
         <v>200</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3491,10 +3620,26 @@
       </c>
       <c r="B123">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G123">
         <v>200</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3503,10 +3648,26 @@
       </c>
       <c r="B124">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>40</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G124">
         <v>200</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3515,10 +3676,26 @@
       </c>
       <c r="B125">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="G125">
         <v>200</v>
+      </c>
+      <c r="H125" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3526,11 +3703,26 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G126">
         <v>200</v>
+      </c>
+      <c r="H126" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3538,11 +3730,26 @@
         <v>1</v>
       </c>
       <c r="B127">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>50</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G127">
         <v>200</v>
+      </c>
+      <c r="H127" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3550,2350 +3757,5465 @@
         <v>1</v>
       </c>
       <c r="B128">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>50</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G128">
         <v>200</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
       <c r="B129">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>50</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="G129">
         <v>200</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
       <c r="B130">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>90</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="G130">
         <v>200</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>63</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="G131">
         <v>200</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
       <c r="B132">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>63</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="G132">
         <v>200</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>63</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="G133">
         <v>200</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
       <c r="B134">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>63</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="G134">
         <v>200</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
       <c r="B135">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="G135">
         <v>200</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
       <c r="B136">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>18</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>120</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G136">
         <v>200</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
       <c r="B137">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>120</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G137">
         <v>200</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
       <c r="B138">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>18</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>120</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G138">
         <v>200</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
       <c r="B139">
         <f t="shared" ref="B139:B202" si="5">B138+1</f>
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>115</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="G139">
         <v>200</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
       <c r="B140">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>115</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>135</v>
       </c>
       <c r="G140">
         <v>200</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>19</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>120</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G141">
         <v>200</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
       <c r="B142">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>120</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G142">
         <v>200</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>19</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>120</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="G143">
         <v>200</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="G144">
         <v>200</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145">
         <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G145">
+        <v>200</v>
+      </c>
+      <c r="H145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G145">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
       <c r="G146">
         <v>200</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
       <c r="B147">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>20</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>20</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>200</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>20</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>200</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>20</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>60</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G149">
         <v>200</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
       <c r="B150">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>60</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="G150">
         <v>200</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151">
-        <f t="shared" si="5"/>
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>21</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>71</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G151">
         <v>200</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
       <c r="B152">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>21</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>71</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G152">
         <v>200</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>21</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>71</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G153">
         <v>200</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
       <c r="B154">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>71</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G154">
         <v>200</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>21</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>71</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G155">
         <v>200</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
       <c r="B156">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156">
+        <v>71</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G156">
         <v>200</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
       <c r="B157">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>21</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>71</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G157">
         <v>200</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
       <c r="B158">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>21</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>71</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="G158">
         <v>200</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159">
-        <f t="shared" si="5"/>
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>22</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>90</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="G159">
         <v>200</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>22</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>90</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="G160">
         <v>200</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
       <c r="B161">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>22</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>100</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="G161">
         <v>200</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
       <c r="B162">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="G162">
         <v>200</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>22</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>100</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="G163">
         <v>200</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
       <c r="B164">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>22</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>110</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="G164">
         <v>200</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>22</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>110</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ref="F165:F228" si="6">E165+20</f>
+        <v>130</v>
       </c>
       <c r="G165">
         <v>200</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
       <c r="B166">
         <f t="shared" si="5"/>
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="C166">
+        <v>22</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>110</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="G166">
         <v>200</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>23</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>50</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="G167">
         <v>200</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
       <c r="B168">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>23</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>50</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="G168">
         <v>200</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>23</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>50</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="G169">
         <v>200</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
       <c r="B170">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>23</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>50</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="G170">
         <v>200</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
       <c r="B171">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>50</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="G171">
         <v>200</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
       <c r="B172">
-        <f t="shared" si="5"/>
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G172">
         <v>200</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
       <c r="B173">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G173">
         <v>200</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
       <c r="B174">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>24</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>200</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
       <c r="B175">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G175">
         <v>200</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
       <c r="B176">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>30</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G176">
         <v>200</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177">
-        <f t="shared" si="5"/>
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>25</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>56</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="G177">
         <v>200</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
       <c r="B178">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>25</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>56</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="G178">
         <v>200</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="B179">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>25</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>56</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="G179">
         <v>200</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
       <c r="B180">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="G180">
         <v>200</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
       <c r="B181">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="C181">
+        <v>25</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>98</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="6"/>
+        <v>118</v>
       </c>
       <c r="G181">
         <v>200</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
       <c r="B182">
-        <f t="shared" si="5"/>
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>26</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>40</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G182">
         <v>200</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
       <c r="B183">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>26</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>40</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G183">
         <v>200</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
       <c r="B184">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>26</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>40</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G184">
         <v>200</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
       <c r="B185">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>26</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>45</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="G185">
         <v>200</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
       <c r="B186">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>26</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
       <c r="G186">
         <v>200</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
       <c r="B187">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>27</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>40</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G187">
         <v>200</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
       <c r="B188">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>27</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>40</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G188">
         <v>200</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
       <c r="B189">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>27</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>40</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G189">
         <v>200</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
       <c r="B190">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>27</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>60</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="G190">
         <v>200</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
       <c r="B191">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>27</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>34</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
       <c r="G191">
         <v>200</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
       <c r="B192">
-        <f t="shared" si="5"/>
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>28</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>10</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="G192">
         <v>200</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
       <c r="B193">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>28</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>200</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
       <c r="B194">
         <f t="shared" si="5"/>
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>28</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G194">
         <v>200</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
       <c r="B195">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>28</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>40</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="G195">
         <v>200</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
       <c r="B196">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>28</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>24</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>200</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="B197">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>29</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>30</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G197">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
       <c r="B198">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>29</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>30</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="G198">
         <v>200</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="B199">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>29</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>110</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="G199">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
       <c r="B200">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>29</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>110</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="G200">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>29</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>23</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="B202">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>56</v>
+      </c>
+      <c r="F202">
+        <f t="shared" ref="F202:F250" si="7">E202+20</f>
+        <v>76</v>
       </c>
       <c r="G202">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="H202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
       <c r="B203">
-        <f t="shared" ref="B203:B266" si="6">B202+1</f>
+        <f t="shared" ref="B203:B266" si="8">B202+1</f>
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>30</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>56</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="G203">
+        <v>1000</v>
+      </c>
+      <c r="H203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>30</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="G204">
+        <v>1000</v>
+      </c>
+      <c r="H204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>30</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
         <v>98</v>
       </c>
-      <c r="G203">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204">
-        <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="G204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <f t="shared" si="6"/>
+      <c r="F205">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="G205">
+        <v>1000</v>
+      </c>
+      <c r="H205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>31</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>40</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G206">
+        <v>1000</v>
+      </c>
+      <c r="H206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>31</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>40</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G207">
+        <v>1000</v>
+      </c>
+      <c r="H207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>31</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>40</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G208">
+        <v>1000</v>
+      </c>
+      <c r="H208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>31</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>45</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="G209">
+        <v>1000</v>
+      </c>
+      <c r="H209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>31</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="G210">
+        <v>1000</v>
+      </c>
+      <c r="H210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>32</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>40</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G211">
+        <v>1000</v>
+      </c>
+      <c r="H211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>32</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>40</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G212">
+        <v>1000</v>
+      </c>
+      <c r="H212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>32</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>40</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G213">
+        <v>1000</v>
+      </c>
+      <c r="H213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>32</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>60</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="G214">
+        <v>1000</v>
+      </c>
+      <c r="H214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>32</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>34</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="G215">
+        <v>1000</v>
+      </c>
+      <c r="H215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>33</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G216">
+        <v>1000</v>
+      </c>
+      <c r="H216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>33</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>20</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="G217">
+        <v>1000</v>
+      </c>
+      <c r="H217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>33</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G218">
+        <v>1000</v>
+      </c>
+      <c r="H218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>33</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>40</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="G219">
+        <v>1000</v>
+      </c>
+      <c r="H219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>33</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>24</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="G220">
+        <v>1000</v>
+      </c>
+      <c r="H220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G221">
+        <v>1000</v>
+      </c>
+      <c r="H221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>34</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>30</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="G222">
+        <v>1000</v>
+      </c>
+      <c r="H222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>34</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>110</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="G223">
+        <v>1000</v>
+      </c>
+      <c r="H223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>34</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>110</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="G224">
+        <v>1000</v>
+      </c>
+      <c r="H224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>34</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>23</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="G225">
+        <v>1000</v>
+      </c>
+      <c r="H225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>35</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>56</v>
+      </c>
+      <c r="F226">
+        <f>E226+60</f>
+        <v>116</v>
+      </c>
+      <c r="G226">
+        <v>200</v>
+      </c>
+      <c r="H226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>35</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>56</v>
+      </c>
+      <c r="F227">
+        <f t="shared" ref="F227:F275" si="9">E227+60</f>
+        <v>116</v>
+      </c>
+      <c r="G227">
+        <v>200</v>
+      </c>
+      <c r="H227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>56</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="G228">
+        <v>200</v>
+      </c>
+      <c r="H228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>3</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="G229">
+        <v>200</v>
+      </c>
+      <c r="H229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>35</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>98</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="G230">
+        <v>200</v>
+      </c>
+      <c r="H230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>36</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>40</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="G205">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="G206">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-      <c r="G207">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <f t="shared" si="6"/>
-        <v>103</v>
-      </c>
-      <c r="G208">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <f t="shared" si="6"/>
-        <v>104</v>
-      </c>
-      <c r="G209">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <f t="shared" si="6"/>
+      <c r="G231">
+        <v>200</v>
+      </c>
+      <c r="H231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>36</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>40</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G232">
+        <v>200</v>
+      </c>
+      <c r="H232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>36</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G233">
+        <v>200</v>
+      </c>
+      <c r="H233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>36</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>45</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="G210">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-      <c r="G211">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212">
-        <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="G212">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213">
-        <f t="shared" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="G213">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214">
-        <f t="shared" si="6"/>
-        <v>109</v>
-      </c>
-      <c r="G214">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215">
-        <f t="shared" si="6"/>
+      <c r="G234">
+        <v>200</v>
+      </c>
+      <c r="H234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>36</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>7</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="G235">
+        <v>200</v>
+      </c>
+      <c r="H235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>37</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>40</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G236">
+        <v>200</v>
+      </c>
+      <c r="H236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>37</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>40</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G237">
+        <v>200</v>
+      </c>
+      <c r="H237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>37</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>40</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G238">
+        <v>200</v>
+      </c>
+      <c r="H238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>37</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>60</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="G239">
+        <v>200</v>
+      </c>
+      <c r="H239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>37</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>34</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="G240">
+        <v>200</v>
+      </c>
+      <c r="H240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>38</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>10</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="G241">
+        <v>200</v>
+      </c>
+      <c r="H241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C242">
+        <v>38</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>20</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G242">
+        <v>200</v>
+      </c>
+      <c r="H242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>38</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>30</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G243">
+        <v>200</v>
+      </c>
+      <c r="H243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>38</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>40</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G244">
+        <v>200</v>
+      </c>
+      <c r="H244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <v>38</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>24</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="G245">
+        <v>200</v>
+      </c>
+      <c r="H245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>39</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>30</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G246">
+        <v>200</v>
+      </c>
+      <c r="H246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>39</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>30</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G247">
+        <v>200</v>
+      </c>
+      <c r="H247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>39</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
         <v>110</v>
       </c>
-      <c r="G215">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <f t="shared" si="6"/>
-        <v>111</v>
-      </c>
-      <c r="G216">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="G217">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218">
-        <f t="shared" si="6"/>
-        <v>113</v>
-      </c>
-      <c r="G218">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219">
-        <f t="shared" si="6"/>
-        <v>114</v>
-      </c>
-      <c r="G219">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220">
-        <f t="shared" si="6"/>
-        <v>115</v>
-      </c>
-      <c r="G220">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221">
-        <f t="shared" si="6"/>
+      <c r="F248">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="G248">
+        <v>200</v>
+      </c>
+      <c r="H248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C249">
+        <v>39</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>110</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="G249">
+        <v>200</v>
+      </c>
+      <c r="H249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>39</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>23</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="G250">
+        <v>200</v>
+      </c>
+      <c r="H250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>40</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>56</v>
+      </c>
+      <c r="F251">
+        <f>E251+60</f>
         <v>116</v>
       </c>
-      <c r="G221">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-      <c r="G222">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223">
-        <f t="shared" si="6"/>
-        <v>118</v>
-      </c>
-      <c r="G223">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-      <c r="G224">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="6"/>
+      <c r="G251">
+        <v>1000</v>
+      </c>
+      <c r="H251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>40</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>56</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="G252">
+        <v>1000</v>
+      </c>
+      <c r="H252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <v>40</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>56</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="G253">
+        <v>1000</v>
+      </c>
+      <c r="H253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C254">
+        <v>40</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="G254">
+        <v>1000</v>
+      </c>
+      <c r="H254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>40</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>98</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="G255">
+        <v>1000</v>
+      </c>
+      <c r="H255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>41</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>40</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G256">
+        <v>1000</v>
+      </c>
+      <c r="H256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>41</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>40</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G257">
+        <v>1000</v>
+      </c>
+      <c r="H257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C258">
+        <v>41</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>40</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G258">
+        <v>1000</v>
+      </c>
+      <c r="H258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>41</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="G259">
+        <v>1000</v>
+      </c>
+      <c r="H259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>41</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>7</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="G260">
+        <v>1000</v>
+      </c>
+      <c r="H260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>42</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>40</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G261">
+        <v>1000</v>
+      </c>
+      <c r="H261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C262">
+        <v>42</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>40</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G262">
+        <v>1000</v>
+      </c>
+      <c r="H262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C263">
+        <v>42</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>40</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G263">
+        <v>1000</v>
+      </c>
+      <c r="H263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>42</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>60</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="G225">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <f t="shared" si="6"/>
-        <v>121</v>
-      </c>
-      <c r="G226">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227">
-        <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-      <c r="G227">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228">
-        <f t="shared" si="6"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229">
-        <f t="shared" si="6"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230">
-        <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231">
-        <f t="shared" si="6"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232">
-        <f t="shared" si="6"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233">
-        <f t="shared" si="6"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="6"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="6"/>
+      <c r="G264">
+        <v>1000</v>
+      </c>
+      <c r="H264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>42</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>34</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="G265">
+        <v>1000</v>
+      </c>
+      <c r="H265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>43</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>10</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="G266">
+        <v>1000</v>
+      </c>
+      <c r="H266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <f t="shared" ref="B267:B275" si="10">B266+1</f>
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>43</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>20</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G267">
+        <v>1000</v>
+      </c>
+      <c r="H267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>43</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>30</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G268">
+        <v>1000</v>
+      </c>
+      <c r="H268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>43</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>40</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G269">
+        <v>1000</v>
+      </c>
+      <c r="H269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>43</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>24</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="G270">
+        <v>1000</v>
+      </c>
+      <c r="H270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>44</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>30</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G271">
+        <v>1000</v>
+      </c>
+      <c r="H271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>44</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>30</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="G272">
+        <v>1000</v>
+      </c>
+      <c r="H272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C273">
+        <v>44</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>110</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="G273">
+        <v>1000</v>
+      </c>
+      <c r="H273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>44</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>110</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="G274">
+        <v>1000</v>
+      </c>
+      <c r="H274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>44</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>23</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="G275">
+        <v>1000</v>
+      </c>
+      <c r="H275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>45</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>30</v>
+      </c>
+      <c r="F276">
+        <f t="shared" ref="F229:F292" si="11">E276+20</f>
+        <v>50</v>
+      </c>
+      <c r="G276">
+        <v>200</v>
+      </c>
+      <c r="H276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <f t="shared" ref="B267:B330" si="12">B276+1</f>
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>45</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>30</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G277">
+        <v>200</v>
+      </c>
+      <c r="H277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>45</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>30</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G278">
+        <v>200</v>
+      </c>
+      <c r="H278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>45</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>30</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G279">
+        <v>200</v>
+      </c>
+      <c r="H279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>45</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>30</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G280">
+        <v>200</v>
+      </c>
+      <c r="H280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>45</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>70</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="G281">
+        <v>200</v>
+      </c>
+      <c r="H281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>46</v>
+      </c>
+      <c r="D282">
+        <v>4</v>
+      </c>
+      <c r="E282">
+        <v>30</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G282">
+        <v>200</v>
+      </c>
+      <c r="H282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <v>30</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G283">
+        <v>200</v>
+      </c>
+      <c r="H283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>46</v>
+      </c>
+      <c r="D284">
+        <v>4</v>
+      </c>
+      <c r="E284">
+        <v>30</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G284">
+        <v>200</v>
+      </c>
+      <c r="H284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+      <c r="D285">
+        <v>4</v>
+      </c>
+      <c r="E285">
+        <v>30</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G285">
+        <v>200</v>
+      </c>
+      <c r="H285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>46</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>60</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="G286">
+        <v>200</v>
+      </c>
+      <c r="H286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>46</v>
+      </c>
+      <c r="D287">
+        <v>4</v>
+      </c>
+      <c r="E287">
+        <v>80</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="G287">
+        <v>200</v>
+      </c>
+      <c r="H287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>46</v>
+      </c>
+      <c r="D288">
+        <v>4</v>
+      </c>
+      <c r="E288">
+        <v>80</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="G288">
+        <v>200</v>
+      </c>
+      <c r="H288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>47</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>110</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="6"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="6"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="6"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="6"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="6"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="6"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="6"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>1</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="6"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>1</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>1</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="6"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="6"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="6"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="6"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="6"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="6"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="6"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="6"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="6"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>1</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="6"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258">
-        <f t="shared" si="6"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="6"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="6"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="6"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="6"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="6"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="6"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
-        <v>1</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>1</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="6"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>1</v>
-      </c>
-      <c r="B267">
-        <f t="shared" ref="B267:B330" si="7">B266+1</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="7"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="7"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270">
-        <v>1</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="7"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272">
-        <v>1</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
-        <v>1</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
-        <v>1</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="7"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
-        <v>1</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>1</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
-        <v>1</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="7"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
-        <v>1</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
-        <v>1</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
-        <v>1</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="7"/>
+      <c r="G289">
+        <v>200</v>
+      </c>
+      <c r="H289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>47</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>110</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="G290">
+        <v>200</v>
+      </c>
+      <c r="H290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>47</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>110</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="G291">
+        <v>200</v>
+      </c>
+      <c r="H291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>47</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>110</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="G292">
+        <v>200</v>
+      </c>
+      <c r="H292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C293">
+        <v>47</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>110</v>
+      </c>
+      <c r="F293">
+        <f t="shared" ref="F293:F353" si="13">E293+20</f>
+        <v>130</v>
+      </c>
+      <c r="G293">
+        <v>200</v>
+      </c>
+      <c r="H293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>47</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
         <v>176</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
-        <v>1</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
-        <v>1</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
-        <v>1</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="7"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
-        <v>1</v>
-      </c>
-      <c r="B285">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
-        <v>1</v>
-      </c>
-      <c r="B286">
-        <f t="shared" si="7"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
-        <v>1</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="7"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
-        <v>1</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="7"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
-        <v>1</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="7"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
-        <v>1</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
-        <v>1</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293">
-        <f t="shared" si="7"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294">
-        <f t="shared" si="7"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="G294">
+        <v>200</v>
+      </c>
+      <c r="H294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
       <c r="B295">
-        <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>47</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="G295">
+        <v>200</v>
+      </c>
+      <c r="H295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
       <c r="B296">
-        <f t="shared" si="7"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G296">
+        <v>200</v>
+      </c>
+      <c r="H296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
       <c r="B297">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G297">
+        <v>200</v>
+      </c>
+      <c r="H297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
       <c r="B298">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G298">
+        <v>200</v>
+      </c>
+      <c r="H298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
       <c r="B299">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G299">
+        <v>200</v>
+      </c>
+      <c r="H299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
       <c r="B300">
-        <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G300">
+        <v>200</v>
+      </c>
+      <c r="H300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
       <c r="B301">
-        <f t="shared" si="7"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
       <c r="B302">
-        <f t="shared" si="7"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
       <c r="B303">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
       <c r="B304">
-        <f t="shared" si="7"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
       <c r="B305">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
       <c r="B306">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
       <c r="B307">
-        <f t="shared" si="7"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
       <c r="B308">
-        <f t="shared" si="7"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1</v>
       </c>
       <c r="B309">
-        <f t="shared" si="7"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
       <c r="B310">
-        <f t="shared" si="7"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
       <c r="B311">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
       <c r="B312">
-        <f t="shared" si="7"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
       <c r="B313">
-        <f t="shared" si="7"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
       <c r="B314">
-        <f t="shared" si="7"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
       <c r="B315">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
       <c r="B316">
-        <f t="shared" si="7"/>
-        <v>211</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="B317">
-        <f t="shared" si="7"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
       <c r="B318">
-        <f t="shared" si="7"/>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
       <c r="B319">
-        <f t="shared" si="7"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
       <c r="B320">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
       <c r="B321">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
       <c r="B322">
-        <f t="shared" si="7"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
       <c r="B323">
-        <f t="shared" si="7"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="F323">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1</v>
       </c>
       <c r="B324">
-        <f t="shared" si="7"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="B325">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
       <c r="B326">
-        <f t="shared" si="7"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="B327">
-        <f t="shared" si="7"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1</v>
       </c>
       <c r="B328">
-        <f t="shared" si="7"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
       <c r="B329">
-        <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
       <c r="B330">
-        <f t="shared" si="7"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1</v>
       </c>
       <c r="B331">
-        <f t="shared" ref="B331:B339" si="8">B330+1</f>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B331:B339" si="14">B330+1</f>
+        <v>37</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1</v>
       </c>
       <c r="B332">
-        <f t="shared" si="8"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
       <c r="B333">
-        <f t="shared" si="8"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
       <c r="B334">
-        <f t="shared" si="8"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
       <c r="B335">
-        <f t="shared" si="8"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
       <c r="B336">
-        <f t="shared" si="8"/>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1</v>
       </c>
       <c r="B337">
-        <f t="shared" si="8"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
       <c r="B338">
-        <f t="shared" si="8"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
       <c r="B339">
-        <f t="shared" si="8"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F340">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F341">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F342">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F343">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F344">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F345">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F346">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F347">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F348">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F349">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F350">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F351">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F352">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F353">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1</v>
       </c>
@@ -7840,6 +11162,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/test/TestJuntos.xlsx
+++ b/test/TestJuntos.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B287" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView tabSelected="1" topLeftCell="B309" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="B139">
-        <f t="shared" ref="B139:B202" si="5">B138+1</f>
+        <f t="shared" ref="B139:B201" si="5">B138+1</f>
         <v>4</v>
       </c>
       <c r="C139">
@@ -4797,7 +4797,7 @@
         <v>110</v>
       </c>
       <c r="F165">
-        <f t="shared" ref="F165:F228" si="6">E165+20</f>
+        <f t="shared" ref="F165:F201" si="6">E165+20</f>
         <v>130</v>
       </c>
       <c r="G165">
@@ -5825,7 +5825,7 @@
         <v>56</v>
       </c>
       <c r="F202">
-        <f t="shared" ref="F202:F250" si="7">E202+20</f>
+        <f t="shared" ref="F202:F225" si="7">E202+20</f>
         <v>76</v>
       </c>
       <c r="G202">
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="B203">
-        <f t="shared" ref="B203:B266" si="8">B202+1</f>
+        <f t="shared" ref="B203:B265" si="8">B202+1</f>
         <v>2</v>
       </c>
       <c r="C203">
@@ -7882,7 +7882,7 @@
         <v>30</v>
       </c>
       <c r="F276">
-        <f t="shared" ref="F229:F292" si="11">E276+20</f>
+        <f t="shared" ref="F276:F292" si="11">E276+20</f>
         <v>50</v>
       </c>
       <c r="G276">
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="B277">
-        <f t="shared" ref="B267:B330" si="12">B276+1</f>
+        <f t="shared" ref="B277:B333" si="12">B276+1</f>
         <v>2</v>
       </c>
       <c r="C277">
@@ -8422,8 +8422,16 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>48</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
       </c>
       <c r="F296">
         <f t="shared" si="13"/>
@@ -8442,7 +8450,16 @@
       </c>
       <c r="B297">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>48</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
       </c>
       <c r="F297">
         <f t="shared" si="13"/>
@@ -8461,7 +8478,16 @@
       </c>
       <c r="B298">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>48</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
       </c>
       <c r="F298">
         <f t="shared" si="13"/>
@@ -8480,7 +8506,16 @@
       </c>
       <c r="B299">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>48</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
       </c>
       <c r="F299">
         <f t="shared" si="13"/>
@@ -8499,7 +8534,16 @@
       </c>
       <c r="B300">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>48</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
       </c>
       <c r="F300">
         <f t="shared" si="13"/>
@@ -8517,12 +8561,23 @@
         <v>1</v>
       </c>
       <c r="B301">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>48</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>65</v>
       </c>
       <c r="F301">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="G301">
+        <v>200</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8530,12 +8585,23 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C302">
+        <v>48</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>65</v>
       </c>
       <c r="F302">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="G302">
+        <v>200</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8543,12 +8609,23 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>48</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>140</v>
       </c>
       <c r="F303">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="G303">
+        <v>200</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8557,423 +8634,771 @@
       </c>
       <c r="B304">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>48</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>140</v>
       </c>
       <c r="F304">
         <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G304">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
       <c r="B305">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>49</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>30</v>
       </c>
       <c r="F305">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E305+60</f>
+        <v>90</v>
+      </c>
+      <c r="G305">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
       <c r="B306">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>49</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>30</v>
       </c>
       <c r="F306">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F306:F333" si="14">E306+60</f>
+        <v>90</v>
+      </c>
+      <c r="G306">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
       <c r="B307">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>49</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>30</v>
       </c>
       <c r="F307">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G307">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
       <c r="B308">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>49</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>30</v>
       </c>
       <c r="F308">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G308">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1</v>
       </c>
       <c r="B309">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>49</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>30</v>
       </c>
       <c r="F309">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G309">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
       <c r="B310">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>49</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>100</v>
       </c>
       <c r="F310">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="G310">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
       <c r="B311">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>50</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>30</v>
       </c>
       <c r="F311">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G311">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
       <c r="B312">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>50</v>
+      </c>
+      <c r="D312">
+        <v>4</v>
+      </c>
+      <c r="E312">
+        <v>30</v>
       </c>
       <c r="F312">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G312">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
       <c r="B313">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>50</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313">
+        <v>30</v>
       </c>
       <c r="F313">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G313">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
       <c r="B314">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>50</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314">
+        <v>30</v>
       </c>
       <c r="F314">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G314">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
       <c r="B315">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C315">
+        <v>50</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>60</v>
       </c>
       <c r="F315">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="G315">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
       <c r="B316">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>50</v>
+      </c>
+      <c r="D316">
+        <v>4</v>
+      </c>
+      <c r="E316">
+        <v>100</v>
       </c>
       <c r="F316">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="G316">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="B317">
-        <f t="shared" si="12"/>
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>50</v>
+      </c>
+      <c r="D317">
+        <v>4</v>
+      </c>
+      <c r="E317">
+        <v>100</v>
       </c>
       <c r="F317">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="G317">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
       <c r="B318">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>51</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>110</v>
       </c>
       <c r="F318">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G318">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
       <c r="B319">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>51</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>110</v>
       </c>
       <c r="F319">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G319">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
       <c r="B320">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>51</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>110</v>
       </c>
       <c r="F320">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G320">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
       <c r="B321">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>51</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>110</v>
       </c>
       <c r="F321">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G321">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
       <c r="B322">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="C322">
+        <v>51</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>110</v>
       </c>
       <c r="F322">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="G322">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
       <c r="B323">
-        <f t="shared" si="12"/>
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>51</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>176</v>
       </c>
       <c r="F323">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>236</v>
+      </c>
+      <c r="G323">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1</v>
       </c>
       <c r="B324">
-        <f t="shared" si="12"/>
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>51</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
       </c>
       <c r="F324">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="G324">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="B325">
-        <f t="shared" si="12"/>
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>52</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
       </c>
       <c r="F325">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G325">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
       <c r="B326">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>52</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
       </c>
       <c r="F326">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G326">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="B327">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>52</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
       </c>
       <c r="F327">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G327">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1</v>
       </c>
       <c r="B328">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>52</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
       </c>
       <c r="F328">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G328">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
       <c r="B329">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C329">
+        <v>52</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
       </c>
       <c r="F329">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G329">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
       <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>52</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>65</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="G330">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <v>52</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>65</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="G331">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>52</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>140</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="G332">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333">
         <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="F330">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331">
-        <f t="shared" ref="B331:B339" si="14">B330+1</f>
-        <v>37</v>
-      </c>
-      <c r="F331">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332">
-        <v>1</v>
-      </c>
-      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C333">
+        <v>52</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>140</v>
+      </c>
+      <c r="F333">
         <f t="shared" si="14"/>
-        <v>38</v>
-      </c>
-      <c r="F332">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="F333">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G333">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
       <c r="B334">
-        <f t="shared" si="14"/>
-        <v>40</v>
+        <f t="shared" ref="B331:B339" si="15">B333+1</f>
+        <v>3</v>
       </c>
       <c r="F334">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
       <c r="B335">
-        <f t="shared" si="14"/>
-        <v>41</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="F335">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
       <c r="B336">
-        <f t="shared" si="14"/>
-        <v>42</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="F336">
         <f t="shared" si="13"/>
@@ -8985,8 +9410,8 @@
         <v>1</v>
       </c>
       <c r="B337">
-        <f t="shared" si="14"/>
-        <v>43</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="F337">
         <f t="shared" si="13"/>
@@ -8998,8 +9423,8 @@
         <v>1</v>
       </c>
       <c r="B338">
-        <f t="shared" si="14"/>
-        <v>44</v>
+        <f t="shared" si="15"/>
+        <v>7</v>
       </c>
       <c r="F338">
         <f t="shared" si="13"/>
@@ -9011,8 +9436,8 @@
         <v>1</v>
       </c>
       <c r="B339">
-        <f t="shared" si="14"/>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="F339">
         <f t="shared" si="13"/>
